--- a/testData/doctors.xlsx
+++ b/testData/doctors.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2303507\eclipse-workspace\FindingHospitalsHackathonProject 1\FindingHospitalsHackathonProject\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2303621\Downloads\FinalProject\FindingHospitalsHackathonProject\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707A00CE-F5B4-4349-90F4-07F79C859748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6E0A96-1FF7-49EB-BDF7-AA5C3348029F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CEE1F4E5-AA58-4ED3-9D41-A98B83FC7E01}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{CEE1F4E5-AA58-4ED3-9D41-A98B83FC7E01}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Doctor" r:id="rId5" sheetId="2"/>
+    <sheet name="Doctor" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,21 +37,330 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="108">
+  <si>
+    <t>Dr. Vathsala Naik</t>
+  </si>
+  <si>
+    <t>Dr. (Col) M. C. Sharma</t>
+  </si>
+  <si>
+    <t>Dr. Uday Kamath</t>
+  </si>
+  <si>
+    <t>4 - 16 years experience</t>
+  </si>
+  <si>
+    <t>Old Airport Road,</t>
+  </si>
+  <si>
+    <t>Indiranagar,</t>
+  </si>
+  <si>
+    <t>41 years experience overall</t>
+  </si>
+  <si>
+    <t>Frazer Town,</t>
+  </si>
+  <si>
+    <t>38 years experience overall</t>
+  </si>
+  <si>
+    <t>₹500</t>
+  </si>
+  <si>
+    <t>₹600</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>97%</t>
+  </si>
+  <si>
+    <t>V Dental &amp; Implant Center</t>
+  </si>
+  <si>
+    <t>Colonel's Dental Spa</t>
+  </si>
+  <si>
+    <t>96%</t>
+  </si>
+  <si>
+    <t>Dr. Sharon Colaco Dias</t>
+  </si>
+  <si>
+    <t>Manipal Hospitals Old Airport Road</t>
+  </si>
+  <si>
+    <t>Dr. P S Lakshmi</t>
+  </si>
+  <si>
+    <t>35 years experience overall</t>
+  </si>
+  <si>
+    <t>Bannerghatta Road,</t>
+  </si>
+  <si>
+    <t>Perfect Smile</t>
+  </si>
+  <si>
+    <t>92%</t>
+  </si>
+  <si>
+    <t>Dr. Vikram Shetty K</t>
+  </si>
+  <si>
+    <t>29 years experience overall</t>
+  </si>
+  <si>
+    <t>Jeevanbhimanagar,</t>
+  </si>
+  <si>
+    <t>Smile and Shine Multi Speciality Dental Clinic</t>
+  </si>
+  <si>
+    <t>Dr. Chelliah Venkatraman</t>
+  </si>
+  <si>
+    <t>51 years experience overall</t>
+  </si>
+  <si>
+    <t>Adyar,</t>
+  </si>
+  <si>
+    <t>Parasu Dental Hospital</t>
+  </si>
+  <si>
+    <t>₹1500</t>
+  </si>
+  <si>
+    <t>Dr. Yashwanth Kumar Venkataraman</t>
+  </si>
+  <si>
+    <t>25 years experience overall</t>
+  </si>
+  <si>
+    <t>Velachery,</t>
+  </si>
+  <si>
+    <t>Yash Dental</t>
+  </si>
+  <si>
+    <t>₹1000</t>
+  </si>
+  <si>
+    <t>Dr. Pavani Thota</t>
+  </si>
+  <si>
+    <t>13 years experience overall</t>
+  </si>
+  <si>
+    <t>Nungambakkam,</t>
+  </si>
+  <si>
+    <t>Dhantham Dental Hospital International</t>
+  </si>
+  <si>
+    <t>₹1800</t>
+  </si>
+  <si>
+    <t>Dr. Udhayaraja</t>
+  </si>
+  <si>
+    <t>1 - 14 years experience</t>
+  </si>
+  <si>
+    <t>T Nagar,</t>
+  </si>
+  <si>
+    <t>Dr. Udhayarajas Dental &amp; Orthodontic Centre</t>
+  </si>
+  <si>
+    <t>99%</t>
+  </si>
+  <si>
+    <t>Dr. Rajesh Kumar</t>
+  </si>
+  <si>
+    <t>44 years experience overall</t>
+  </si>
+  <si>
+    <t>Mylapore,</t>
+  </si>
+  <si>
+    <t>Thangam's Dental Clinic</t>
+  </si>
+  <si>
+    <t>Dr. E. Sarath Chandar</t>
+  </si>
+  <si>
+    <t>30 years experience overall</t>
+  </si>
+  <si>
+    <t>Thiruvanmiyur,</t>
+  </si>
+  <si>
+    <t>Sarath Dental Clinic</t>
+  </si>
+  <si>
+    <t>₹400</t>
+  </si>
+  <si>
+    <t>Dr. N. Nanda Kumar</t>
+  </si>
+  <si>
+    <t>KK Nagar,</t>
+  </si>
+  <si>
+    <t>Sai Faciomaxillary &amp; Dental Center</t>
+  </si>
+  <si>
+    <t>₹300</t>
+  </si>
+  <si>
+    <t>Dr. K.Senthil Kumar</t>
+  </si>
+  <si>
+    <t>Kodambakkam,</t>
+  </si>
+  <si>
+    <t>Tooth N Care Dental Clinic</t>
+  </si>
+  <si>
+    <t>₹200</t>
+  </si>
   <si>
     <t>Dr. K.A. Mohan</t>
   </si>
   <si>
+    <t>55 years experience overall</t>
+  </si>
+  <si>
+    <t>Domlur,</t>
+  </si>
+  <si>
+    <t>Dental De Care</t>
+  </si>
+  <si>
+    <t>Dr. Vijayendra R</t>
+  </si>
+  <si>
+    <t>49 years experience overall</t>
+  </si>
+  <si>
+    <t>BTM Layout 2nd Stage,</t>
+  </si>
+  <si>
+    <t>Sathyadeep Dental Clinic</t>
+  </si>
+  <si>
     <t>Dr. Achuth M Baliga</t>
   </si>
   <si>
-    <t>Dr. Vathsala Naik</t>
-  </si>
-  <si>
-    <t>Dr. (Col) M. C. Sharma</t>
-  </si>
-  <si>
-    <t>Dr. Uday Kamath</t>
+    <t>48 years experience overall</t>
+  </si>
+  <si>
+    <t>69%</t>
+  </si>
+  <si>
+    <t>Dr. Rita Mukherjee</t>
+  </si>
+  <si>
+    <t>Dr. Hemalatha Ahuja</t>
+  </si>
+  <si>
+    <t>45 years experience overall</t>
+  </si>
+  <si>
+    <t>Electronics City,</t>
+  </si>
+  <si>
+    <t>V2 E-City Dental Center</t>
+  </si>
+  <si>
+    <t>80%</t>
+  </si>
+  <si>
+    <t>Dr. Sanjay Mohanchandra</t>
+  </si>
+  <si>
+    <t>JP Nagar 6 Phase,</t>
+  </si>
+  <si>
+    <t>Ashirwad Dental Clinic</t>
+  </si>
+  <si>
+    <t>Dr. Girish Rao</t>
+  </si>
+  <si>
+    <t>36 years experience overall</t>
+  </si>
+  <si>
+    <t>Jayanagar,</t>
+  </si>
+  <si>
+    <t>Sagar Hospitals</t>
+  </si>
+  <si>
+    <t>₹700</t>
+  </si>
+  <si>
+    <t>Dr. T. Ramakrishna</t>
+  </si>
+  <si>
+    <t>Bellandur,</t>
+  </si>
+  <si>
+    <t>Dental Profiles</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>Dr. Sunil Rao</t>
+  </si>
+  <si>
+    <t>26 years experience overall</t>
+  </si>
+  <si>
+    <t>Vijayanagar,</t>
+  </si>
+  <si>
+    <t>Smile Dental Care</t>
+  </si>
+  <si>
+    <t>98%</t>
+  </si>
+  <si>
+    <t>Dr. Shyam Padmanabhan</t>
+  </si>
+  <si>
+    <t>28 years experience overall</t>
+  </si>
+  <si>
+    <t>New Thippasandra,</t>
+  </si>
+  <si>
+    <t>Vignesh Dental Speciality Centre</t>
+  </si>
+  <si>
+    <t>Dr. Vivekananda Reddy</t>
+  </si>
+  <si>
+    <t>Hoodi,</t>
+  </si>
+  <si>
+    <t>Smile Craft Dental and Implant Centre</t>
+  </si>
+  <si>
+    <t>22 - 26 years experience</t>
+  </si>
+  <si>
+    <t>18 - 26 years experience</t>
+  </si>
+  <si>
+    <t>70%</t>
   </si>
 </sst>
 </file>
@@ -406,7 +715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52161F4B-F0D1-41CA-B8DF-82E740145121}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
@@ -415,39 +724,128 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="32.90625"/>
+    <col min="2" max="2" customWidth="true" width="30.26953125"/>
+    <col min="3" max="3" customWidth="true" width="24.90625"/>
+    <col min="4" max="4" customWidth="true" width="25.7265625"/>
+    <col min="5" max="5" customWidth="true" width="13.7265625"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>